--- a/public/assets/result/Budiono_5.xlsx
+++ b/public/assets/result/Budiono_5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -136,13 +136,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>ROHIM B.</t>
+    <t>BUDIONO</t>
   </si>
 </sst>
 </file>
@@ -895,19 +892,19 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="K13" s="5">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="L13" s="5">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13"/>
     </row>
@@ -1006,16 +1003,16 @@
         <v>24</v>
       </c>
       <c r="I16" s="5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J16" s="5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K16" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L16" s="5">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1043,19 +1040,19 @@
         <v>24</v>
       </c>
       <c r="I17" s="5">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J17" s="5">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="K17" s="5">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="L17" s="5">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17"/>
     </row>
@@ -1104,9 +1101,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="K23" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="N23" s="1"/>
     </row>
@@ -1122,10 +1117,10 @@
     </row>
     <row r="26" spans="1:14">
       <c r="D26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="L26" s="4"/>
       <c r="N26" s="1"/>
